--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H2">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I2">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J2">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>266.5517742157198</v>
+        <v>271.6116879591279</v>
       </c>
       <c r="R2">
-        <v>266.5517742157198</v>
+        <v>2444.505191632151</v>
       </c>
       <c r="S2">
-        <v>0.1393055111862378</v>
+        <v>0.1318735193078703</v>
       </c>
       <c r="T2">
-        <v>0.1393055111862378</v>
+        <v>0.1318735193078702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H3">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I3">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J3">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>384.1238536516441</v>
+        <v>392.9311994108159</v>
       </c>
       <c r="R3">
-        <v>384.1238536516441</v>
+        <v>3536.380794697343</v>
       </c>
       <c r="S3">
-        <v>0.200751129679084</v>
+        <v>0.1907768421216259</v>
       </c>
       <c r="T3">
-        <v>0.200751129679084</v>
+        <v>0.1907768421216259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H4">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I4">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J4">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>45.9980448967336</v>
+        <v>47.19128172338799</v>
       </c>
       <c r="R4">
-        <v>45.9980448967336</v>
+        <v>424.7215355104919</v>
       </c>
       <c r="S4">
-        <v>0.02403953669699151</v>
+        <v>0.0229124175335519</v>
       </c>
       <c r="T4">
-        <v>0.02403953669699151</v>
+        <v>0.0229124175335519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H5">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I5">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J5">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>52.17664405313752</v>
+        <v>53.19781007470599</v>
       </c>
       <c r="R5">
-        <v>52.17664405313752</v>
+        <v>478.7802906723539</v>
       </c>
       <c r="S5">
-        <v>0.0272686013559314</v>
+        <v>0.0258287207252982</v>
       </c>
       <c r="T5">
-        <v>0.0272686013559314</v>
+        <v>0.0258287207252982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.09104053155563</v>
+        <v>3.143381999999999</v>
       </c>
       <c r="H6">
-        <v>3.09104053155563</v>
+        <v>9.430145999999999</v>
       </c>
       <c r="I6">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518624</v>
       </c>
       <c r="J6">
-        <v>0.4103681717121713</v>
+        <v>0.3901511487518625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>36.36172052495058</v>
+        <v>38.63808272051199</v>
       </c>
       <c r="R6">
-        <v>36.36172052495058</v>
+        <v>347.742744484608</v>
       </c>
       <c r="S6">
-        <v>0.01900339279392659</v>
+        <v>0.01875964906351626</v>
       </c>
       <c r="T6">
-        <v>0.01900339279392659</v>
+        <v>0.01875964906351626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.44131880971331</v>
+        <v>4.913449333333333</v>
       </c>
       <c r="H7">
-        <v>4.44131880971331</v>
+        <v>14.740348</v>
       </c>
       <c r="I7">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481375</v>
       </c>
       <c r="J7">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481376</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>382.9912278733332</v>
+        <v>424.5587291421529</v>
       </c>
       <c r="R7">
-        <v>382.9912278733332</v>
+        <v>3821.028562279376</v>
       </c>
       <c r="S7">
-        <v>0.2001591958474877</v>
+        <v>0.2061327116868315</v>
       </c>
       <c r="T7">
-        <v>0.2001591958474877</v>
+        <v>0.2061327116868314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.44131880971331</v>
+        <v>4.913449333333333</v>
       </c>
       <c r="H8">
-        <v>4.44131880971331</v>
+        <v>14.740348</v>
       </c>
       <c r="I8">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481375</v>
       </c>
       <c r="J8">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481376</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>551.9230430873779</v>
+        <v>614.1943740184746</v>
       </c>
       <c r="R8">
-        <v>551.9230430873779</v>
+        <v>5527.749366166272</v>
       </c>
       <c r="S8">
-        <v>0.2884464824103086</v>
+        <v>0.2982050376753259</v>
       </c>
       <c r="T8">
-        <v>0.2884464824103086</v>
+        <v>0.2982050376753259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.44131880971331</v>
+        <v>4.913449333333333</v>
       </c>
       <c r="H9">
-        <v>4.44131880971331</v>
+        <v>14.740348</v>
       </c>
       <c r="I9">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481375</v>
       </c>
       <c r="J9">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481376</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>66.09165422592697</v>
+        <v>73.76512677203289</v>
       </c>
       <c r="R9">
-        <v>66.09165422592697</v>
+        <v>663.8861409482961</v>
       </c>
       <c r="S9">
-        <v>0.03454087561103864</v>
+        <v>0.03581461071396528</v>
       </c>
       <c r="T9">
-        <v>0.03454087561103864</v>
+        <v>0.03581461071396527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.44131880971331</v>
+        <v>4.913449333333333</v>
       </c>
       <c r="H10">
-        <v>4.44131880971331</v>
+        <v>14.740348</v>
       </c>
       <c r="I10">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481375</v>
       </c>
       <c r="J10">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481376</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>74.96928891588854</v>
+        <v>83.15398651718355</v>
       </c>
       <c r="R10">
-        <v>74.96928891588854</v>
+        <v>748.3858786546521</v>
       </c>
       <c r="S10">
-        <v>0.03918051247801711</v>
+        <v>0.04037311107226844</v>
       </c>
       <c r="T10">
-        <v>0.03918051247801711</v>
+        <v>0.04037311107226844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.44131880971331</v>
+        <v>4.913449333333333</v>
       </c>
       <c r="H11">
-        <v>4.44131880971331</v>
+        <v>14.740348</v>
       </c>
       <c r="I11">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481375</v>
       </c>
       <c r="J11">
-        <v>0.5896318282878287</v>
+        <v>0.6098488512481376</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N11">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q11">
-        <v>52.24583491298522</v>
+        <v>60.39554269394488</v>
       </c>
       <c r="R11">
-        <v>52.24583491298522</v>
+        <v>543.559884245504</v>
       </c>
       <c r="S11">
-        <v>0.02730476194097669</v>
+        <v>0.02932338009974648</v>
       </c>
       <c r="T11">
-        <v>0.02730476194097669</v>
+        <v>0.02932338009974648</v>
       </c>
     </row>
   </sheetData>
